--- a/REyeker-DataAnalyses-Python/results/preprocessed.xlsx
+++ b/REyeker-DataAnalyses-Python/results/preprocessed.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\OneDrive\Dokumente\GitHub\REyeker\REyeker-DataAnalyses-Python\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70393DF6-E2C8-4CC6-B363-5E49F4891831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1510,9 +1516,6 @@
     <t>231-65 208-51 208-33 272-69 396-91 216-145 269-127 341-111 225-62 224-44 328-82 455-89 327-114 422-89 391-108 489-136 297-174 422-164 431-254 586-236 503-238 263-199 229-224 143-39 295-230 468-261 624-242 312-260 309-275 310-295 301-286 253-333 315-358 339-349 372-337 472-340 700-323 683-325 653-344 718-340 679-328 319-355 115-361 39-371 497-336 794-321 422-275 607-258 152-319 359-2 122-22 313-30 141-85 358-75 470-89 232-111 318-113 330-134 477-138 287-160 117-256 314-253 217-277 377-349 178-220 386-250 521-260 331-266 321-285 302-322 494-342 578-350 653-334 758-340 658-337 498-317 655-339 865-333 700-338 562-335 800-324 558-187 442-115</t>
   </si>
   <si>
-    <t>244-51 541-84 236-98 458-112 -1-104 178-106 283-129 514-141 214-159 425-145 278-271 368-245 346-117 286-145 300-234 511-242 257-283 281-310 357-333 590-333 857-324 344-334 342-271 380-315 637-333 875-326 500-341 801-329 464-94 238-127 482-118 337-219 319-268 274-292 285-321 507-321 544-242 293-238 557-240 345-297 505-331 727-316 599-361 592-333 836-331 573-324 282-301 310-237 667-231 473-130 278-123 191-69 322-95 493-125 510-68 228-69 594-350 605-329 796-326 625-233 157-228 435-237 600-248 719-253 584-327 787-329 556-334 342-319 705-336 378-281 627-323 820-336 595-338 313-115 242-281 478-241 549-328 434-149 292-133 628-329 847-327 335-115 401-100</t>
-  </si>
-  <si>
     <t>41-18 303-12 177-79 446-98 234-142 456-152 210-116 465-144 201-267 517-251 294-326 504-333 753-332 530-333 351-324 301-283 300-327 609-330 804-328 275-124 490-110 261-124 501-158 158-120 564-187</t>
   </si>
   <si>
@@ -2024,13 +2027,16 @@
   </si>
   <si>
     <t>188-80 267-150 274-470 268-414 270-262 270-302 380-419 706-393 349-386 604-385 304-431 308-477 290-435 262-300 547-305 327-305 308-541 296-397 287-298 252-441 321-466 372-381 302-165</t>
+  </si>
+  <si>
+    <t>244-51 541-84 236-98 458-112 1-104 178-106 283-129 514-141 214-159 425-145 278-271 368-245 346-117 286-145 300-234 511-242 257-283 281-310 357-333 590-333 857-324 344-334 342-271 380-315 637-333 875-326 500-341 801-329 464-94 238-127 482-118 337-219 319-268 274-292 285-321 507-321 544-242 293-238 557-240 345-297 505-331 727-316 599-361 592-333 836-331 573-324 282-301 310-237 667-231 473-130 278-123 191-69 322-95 493-125 510-68 228-69 594-350 605-329 796-326 625-233 157-228 435-237 600-248 719-253 584-327 787-329 556-334 342-319 705-336 378-281 627-323 820-336 595-338 313-115 242-281 478-241 549-328 434-149 292-133 628-329 847-327 335-115 401-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2089,15 +2095,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2139,7 +2153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2171,9 +2185,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2205,6 +2237,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2380,14 +2430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="I479" sqref="I479"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>638</v>
       </c>
@@ -2436,7 +2488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>712</v>
       </c>
@@ -2459,7 +2511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>750</v>
       </c>
@@ -2482,7 +2534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>784</v>
       </c>
@@ -2505,7 +2557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>829</v>
       </c>
@@ -2528,7 +2580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>841</v>
       </c>
@@ -2551,7 +2603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>857</v>
       </c>
@@ -2574,7 +2626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>938</v>
       </c>
@@ -2597,7 +2649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>643</v>
       </c>
@@ -2620,7 +2672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>694</v>
       </c>
@@ -2643,7 +2695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>704</v>
       </c>
@@ -2666,7 +2718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>715</v>
       </c>
@@ -2689,7 +2741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>733</v>
       </c>
@@ -2712,7 +2764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>739</v>
       </c>
@@ -2735,7 +2787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>748</v>
       </c>
@@ -2758,7 +2810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>756</v>
       </c>
@@ -2781,7 +2833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>757</v>
       </c>
@@ -2804,7 +2856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>772</v>
       </c>
@@ -2827,7 +2879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>780</v>
       </c>
@@ -2850,7 +2902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>785</v>
       </c>
@@ -2873,7 +2925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>789</v>
       </c>
@@ -2896,7 +2948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>801</v>
       </c>
@@ -2919,7 +2971,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>813</v>
       </c>
@@ -2942,7 +2994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>815</v>
       </c>
@@ -2965,7 +3017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>831</v>
       </c>
@@ -2988,7 +3040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>832</v>
       </c>
@@ -3011,7 +3063,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>833</v>
       </c>
@@ -3034,7 +3086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>854</v>
       </c>
@@ -3057,7 +3109,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>855</v>
       </c>
@@ -3080,7 +3132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>875</v>
       </c>
@@ -3103,7 +3155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>876</v>
       </c>
@@ -3126,7 +3178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>900</v>
       </c>
@@ -3149,7 +3201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>939</v>
       </c>
@@ -3172,7 +3224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>945</v>
       </c>
@@ -3195,7 +3247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>631</v>
       </c>
@@ -3218,7 +3270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>699</v>
       </c>
@@ -3241,7 +3293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>700</v>
       </c>
@@ -3264,7 +3316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>716</v>
       </c>
@@ -3287,7 +3339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>727</v>
       </c>
@@ -3310,7 +3362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>734</v>
       </c>
@@ -3333,7 +3385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>737</v>
       </c>
@@ -3356,7 +3408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>761</v>
       </c>
@@ -3379,7 +3431,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>767</v>
       </c>
@@ -3402,7 +3454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>773</v>
       </c>
@@ -3425,7 +3477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>774</v>
       </c>
@@ -3448,7 +3500,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>794</v>
       </c>
@@ -3471,7 +3523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>799</v>
       </c>
@@ -3494,7 +3546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>805</v>
       </c>
@@ -3517,7 +3569,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>817</v>
       </c>
@@ -3540,7 +3592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>825</v>
       </c>
@@ -3563,7 +3615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>828</v>
       </c>
@@ -3586,7 +3638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>837</v>
       </c>
@@ -3609,7 +3661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>842</v>
       </c>
@@ -3632,7 +3684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>852</v>
       </c>
@@ -3655,7 +3707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>859</v>
       </c>
@@ -3678,7 +3730,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>860</v>
       </c>
@@ -3701,7 +3753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>883</v>
       </c>
@@ -3724,7 +3776,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>886</v>
       </c>
@@ -3747,7 +3799,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>894</v>
       </c>
@@ -3770,7 +3822,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>936</v>
       </c>
@@ -3793,7 +3845,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>946</v>
       </c>
@@ -3816,7 +3868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>958</v>
       </c>
@@ -3839,7 +3891,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>653</v>
       </c>
@@ -3862,7 +3914,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>707</v>
       </c>
@@ -3885,7 +3937,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>717</v>
       </c>
@@ -3908,7 +3960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>730</v>
       </c>
@@ -3931,7 +3983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>735</v>
       </c>
@@ -3954,7 +4006,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>740</v>
       </c>
@@ -3977,7 +4029,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>744</v>
       </c>
@@ -4000,7 +4052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>759</v>
       </c>
@@ -4023,7 +4075,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>762</v>
       </c>
@@ -4046,7 +4098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>768</v>
       </c>
@@ -4069,7 +4121,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>782</v>
       </c>
@@ -4092,7 +4144,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>787</v>
       </c>
@@ -4115,7 +4167,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>793</v>
       </c>
@@ -4138,7 +4190,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>803</v>
       </c>
@@ -4161,7 +4213,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>804</v>
       </c>
@@ -4184,7 +4236,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>821</v>
       </c>
@@ -4207,7 +4259,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>830</v>
       </c>
@@ -4230,7 +4282,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>834</v>
       </c>
@@ -4253,7 +4305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>851</v>
       </c>
@@ -4276,7 +4328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>853</v>
       </c>
@@ -4299,7 +4351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>867</v>
       </c>
@@ -4322,7 +4374,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>880</v>
       </c>
@@ -4345,7 +4397,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>888</v>
       </c>
@@ -4368,7 +4420,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>898</v>
       </c>
@@ -4391,7 +4443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>941</v>
       </c>
@@ -4414,7 +4466,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>942</v>
       </c>
@@ -4437,7 +4489,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>653</v>
       </c>
@@ -4460,7 +4512,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>703</v>
       </c>
@@ -4483,7 +4535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>730</v>
       </c>
@@ -4506,7 +4558,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>735</v>
       </c>
@@ -4529,7 +4581,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>744</v>
       </c>
@@ -4552,7 +4604,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>759</v>
       </c>
@@ -4575,7 +4627,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>762</v>
       </c>
@@ -4598,7 +4650,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>803</v>
       </c>
@@ -4621,7 +4673,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>830</v>
       </c>
@@ -4644,7 +4696,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>834</v>
       </c>
@@ -4667,7 +4719,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>853</v>
       </c>
@@ -4690,7 +4742,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>880</v>
       </c>
@@ -4713,7 +4765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>888</v>
       </c>
@@ -4736,7 +4788,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>941</v>
       </c>
@@ -4759,7 +4811,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>942</v>
       </c>
@@ -4782,7 +4834,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>694</v>
       </c>
@@ -4805,7 +4857,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>704</v>
       </c>
@@ -4828,7 +4880,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>739</v>
       </c>
@@ -4851,7 +4903,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>757</v>
       </c>
@@ -4874,7 +4926,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>785</v>
       </c>
@@ -4897,7 +4949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>813</v>
       </c>
@@ -4920,7 +4972,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>832</v>
       </c>
@@ -4943,7 +4995,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>854</v>
       </c>
@@ -4966,7 +5018,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>855</v>
       </c>
@@ -4989,7 +5041,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>875</v>
       </c>
@@ -5012,7 +5064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>876</v>
       </c>
@@ -5035,7 +5087,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>939</v>
       </c>
@@ -5058,7 +5110,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>631</v>
       </c>
@@ -5081,7 +5133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>699</v>
       </c>
@@ -5104,7 +5156,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>700</v>
       </c>
@@ -5127,7 +5179,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>727</v>
       </c>
@@ -5150,7 +5202,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>760</v>
       </c>
@@ -5173,7 +5225,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>761</v>
       </c>
@@ -5196,7 +5248,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>799</v>
       </c>
@@ -5219,7 +5271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>828</v>
       </c>
@@ -5242,7 +5294,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>837</v>
       </c>
@@ -5265,7 +5317,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>842</v>
       </c>
@@ -5288,7 +5340,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>852</v>
       </c>
@@ -5311,7 +5363,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>859</v>
       </c>
@@ -5334,7 +5386,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>860</v>
       </c>
@@ -5357,7 +5409,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>886</v>
       </c>
@@ -5380,7 +5432,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>936</v>
       </c>
@@ -5403,7 +5455,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>946</v>
       </c>
@@ -5426,7 +5478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>958</v>
       </c>
@@ -5449,7 +5501,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>638</v>
       </c>
@@ -5472,7 +5524,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>696</v>
       </c>
@@ -5495,7 +5547,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>706</v>
       </c>
@@ -5518,7 +5570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>708</v>
       </c>
@@ -5541,7 +5593,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>709</v>
       </c>
@@ -5564,7 +5616,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>712</v>
       </c>
@@ -5587,7 +5639,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>732</v>
       </c>
@@ -5610,7 +5662,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>736</v>
       </c>
@@ -5633,7 +5685,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>749</v>
       </c>
@@ -5656,7 +5708,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>750</v>
       </c>
@@ -5679,7 +5731,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>764</v>
       </c>
@@ -5702,7 +5754,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>769</v>
       </c>
@@ -5725,7 +5777,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>784</v>
       </c>
@@ -5748,7 +5800,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>788</v>
       </c>
@@ -5771,7 +5823,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>792</v>
       </c>
@@ -5794,7 +5846,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>806</v>
       </c>
@@ -5817,7 +5869,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>829</v>
       </c>
@@ -5840,7 +5892,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>841</v>
       </c>
@@ -5863,7 +5915,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>857</v>
       </c>
@@ -5886,7 +5938,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>858</v>
       </c>
@@ -5909,7 +5961,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>868</v>
       </c>
@@ -5932,7 +5984,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>877</v>
       </c>
@@ -5955,7 +6007,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>889</v>
       </c>
@@ -5978,7 +6030,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>895</v>
       </c>
@@ -6001,7 +6053,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>938</v>
       </c>
@@ -6024,7 +6076,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>948</v>
       </c>
@@ -6047,7 +6099,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>949</v>
       </c>
@@ -6070,7 +6122,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>653</v>
       </c>
@@ -6093,7 +6145,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>703</v>
       </c>
@@ -6116,7 +6168,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>730</v>
       </c>
@@ -6139,7 +6191,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>735</v>
       </c>
@@ -6162,7 +6214,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>744</v>
       </c>
@@ -6185,7 +6237,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>759</v>
       </c>
@@ -6208,7 +6260,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>762</v>
       </c>
@@ -6231,7 +6283,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>803</v>
       </c>
@@ -6254,7 +6306,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>830</v>
       </c>
@@ -6277,7 +6329,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>834</v>
       </c>
@@ -6300,7 +6352,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>853</v>
       </c>
@@ -6323,7 +6375,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>888</v>
       </c>
@@ -6346,7 +6398,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>941</v>
       </c>
@@ -6369,7 +6421,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>942</v>
       </c>
@@ -6392,7 +6444,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>653</v>
       </c>
@@ -6415,7 +6467,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>703</v>
       </c>
@@ -6438,7 +6490,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>707</v>
       </c>
@@ -6461,7 +6513,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>717</v>
       </c>
@@ -6484,7 +6536,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>730</v>
       </c>
@@ -6507,7 +6559,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>735</v>
       </c>
@@ -6530,7 +6582,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>740</v>
       </c>
@@ -6553,7 +6605,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>744</v>
       </c>
@@ -6576,7 +6628,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>759</v>
       </c>
@@ -6599,7 +6651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>762</v>
       </c>
@@ -6622,7 +6674,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>768</v>
       </c>
@@ -6645,7 +6697,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>782</v>
       </c>
@@ -6668,7 +6720,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>787</v>
       </c>
@@ -6691,7 +6743,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>803</v>
       </c>
@@ -6714,7 +6766,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>804</v>
       </c>
@@ -6737,7 +6789,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>821</v>
       </c>
@@ -6760,7 +6812,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>830</v>
       </c>
@@ -6783,7 +6835,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>834</v>
       </c>
@@ -6806,7 +6858,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>851</v>
       </c>
@@ -6829,7 +6881,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>853</v>
       </c>
@@ -6852,7 +6904,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>867</v>
       </c>
@@ -6875,7 +6927,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>880</v>
       </c>
@@ -6898,7 +6950,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>888</v>
       </c>
@@ -6921,7 +6973,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>898</v>
       </c>
@@ -6944,7 +6996,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>941</v>
       </c>
@@ -6967,7 +7019,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>942</v>
       </c>
@@ -6990,7 +7042,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>638</v>
       </c>
@@ -7013,7 +7065,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>696</v>
       </c>
@@ -7036,7 +7088,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>706</v>
       </c>
@@ -7059,7 +7111,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>708</v>
       </c>
@@ -7082,7 +7134,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>709</v>
       </c>
@@ -7105,7 +7157,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>712</v>
       </c>
@@ -7128,7 +7180,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>732</v>
       </c>
@@ -7151,7 +7203,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>736</v>
       </c>
@@ -7174,7 +7226,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>749</v>
       </c>
@@ -7197,7 +7249,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>750</v>
       </c>
@@ -7220,7 +7272,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>764</v>
       </c>
@@ -7243,7 +7295,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>769</v>
       </c>
@@ -7266,7 +7318,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>784</v>
       </c>
@@ -7289,7 +7341,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>788</v>
       </c>
@@ -7312,7 +7364,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>791</v>
       </c>
@@ -7335,7 +7387,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>792</v>
       </c>
@@ -7358,7 +7410,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>806</v>
       </c>
@@ -7381,7 +7433,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>816</v>
       </c>
@@ -7404,7 +7456,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>829</v>
       </c>
@@ -7427,7 +7479,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>841</v>
       </c>
@@ -7450,7 +7502,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>850</v>
       </c>
@@ -7473,7 +7525,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>857</v>
       </c>
@@ -7496,7 +7548,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>858</v>
       </c>
@@ -7519,7 +7571,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>868</v>
       </c>
@@ -7542,7 +7594,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>877</v>
       </c>
@@ -7565,7 +7617,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>889</v>
       </c>
@@ -7588,7 +7640,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>895</v>
       </c>
@@ -7611,7 +7663,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>938</v>
       </c>
@@ -7634,7 +7686,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>948</v>
       </c>
@@ -7657,7 +7709,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>949</v>
       </c>
@@ -7680,7 +7732,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>643</v>
       </c>
@@ -7703,7 +7755,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>694</v>
       </c>
@@ -7726,7 +7778,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>704</v>
       </c>
@@ -7749,7 +7801,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>715</v>
       </c>
@@ -7772,7 +7824,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>733</v>
       </c>
@@ -7795,7 +7847,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>739</v>
       </c>
@@ -7818,7 +7870,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>748</v>
       </c>
@@ -7841,7 +7893,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>756</v>
       </c>
@@ -7864,7 +7916,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>757</v>
       </c>
@@ -7887,7 +7939,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>780</v>
       </c>
@@ -7910,7 +7962,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>785</v>
       </c>
@@ -7933,7 +7985,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>789</v>
       </c>
@@ -7956,7 +8008,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>801</v>
       </c>
@@ -7979,7 +8031,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>813</v>
       </c>
@@ -8002,7 +8054,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>815</v>
       </c>
@@ -8025,7 +8077,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>831</v>
       </c>
@@ -8048,7 +8100,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>832</v>
       </c>
@@ -8071,7 +8123,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>833</v>
       </c>
@@ -8094,7 +8146,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>854</v>
       </c>
@@ -8117,7 +8169,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>855</v>
       </c>
@@ -8140,7 +8192,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>875</v>
       </c>
@@ -8163,7 +8215,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>876</v>
       </c>
@@ -8186,7 +8238,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>900</v>
       </c>
@@ -8209,7 +8261,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>939</v>
       </c>
@@ -8232,7 +8284,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>945</v>
       </c>
@@ -8255,7 +8307,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>638</v>
       </c>
@@ -8278,7 +8330,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>712</v>
       </c>
@@ -8301,7 +8353,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>750</v>
       </c>
@@ -8324,7 +8376,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>784</v>
       </c>
@@ -8347,7 +8399,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>792</v>
       </c>
@@ -8370,7 +8422,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>829</v>
       </c>
@@ -8393,7 +8445,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>841</v>
       </c>
@@ -8416,7 +8468,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>857</v>
       </c>
@@ -8439,7 +8491,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>938</v>
       </c>
@@ -8462,7 +8514,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>631</v>
       </c>
@@ -8485,7 +8537,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>699</v>
       </c>
@@ -8508,7 +8560,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>700</v>
       </c>
@@ -8531,7 +8583,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>727</v>
       </c>
@@ -8554,7 +8606,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>761</v>
       </c>
@@ -8577,7 +8629,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>767</v>
       </c>
@@ -8600,7 +8652,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>837</v>
       </c>
@@ -8623,7 +8675,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>842</v>
       </c>
@@ -8646,7 +8698,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>859</v>
       </c>
@@ -8669,7 +8721,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>860</v>
       </c>
@@ -8692,7 +8744,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>886</v>
       </c>
@@ -8715,7 +8767,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>958</v>
       </c>
@@ -8738,7 +8790,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>694</v>
       </c>
@@ -8761,7 +8813,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>704</v>
       </c>
@@ -8784,7 +8836,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>739</v>
       </c>
@@ -8807,7 +8859,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>757</v>
       </c>
@@ -8830,7 +8882,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>785</v>
       </c>
@@ -8853,7 +8905,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>813</v>
       </c>
@@ -8876,7 +8928,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>815</v>
       </c>
@@ -8899,7 +8951,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>831</v>
       </c>
@@ -8922,7 +8974,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>832</v>
       </c>
@@ -8945,7 +8997,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>854</v>
       </c>
@@ -8968,7 +9020,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>855</v>
       </c>
@@ -8991,7 +9043,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>875</v>
       </c>
@@ -9014,7 +9066,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>876</v>
       </c>
@@ -9037,7 +9089,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>939</v>
       </c>
@@ -9060,7 +9112,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>945</v>
       </c>
@@ -9083,7 +9135,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>631</v>
       </c>
@@ -9106,7 +9158,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>699</v>
       </c>
@@ -9129,7 +9181,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>700</v>
       </c>
@@ -9152,7 +9204,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>716</v>
       </c>
@@ -9175,7 +9227,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>727</v>
       </c>
@@ -9198,7 +9250,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>734</v>
       </c>
@@ -9221,7 +9273,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>737</v>
       </c>
@@ -9244,7 +9296,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>751</v>
       </c>
@@ -9267,7 +9319,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>761</v>
       </c>
@@ -9290,7 +9342,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>767</v>
       </c>
@@ -9313,7 +9365,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>773</v>
       </c>
@@ -9336,7 +9388,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>774</v>
       </c>
@@ -9359,7 +9411,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>794</v>
       </c>
@@ -9382,7 +9434,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>799</v>
       </c>
@@ -9405,7 +9457,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>805</v>
       </c>
@@ -9428,7 +9480,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>817</v>
       </c>
@@ -9451,7 +9503,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>825</v>
       </c>
@@ -9474,7 +9526,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>828</v>
       </c>
@@ -9497,7 +9549,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>837</v>
       </c>
@@ -9520,7 +9572,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>842</v>
       </c>
@@ -9543,7 +9595,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>852</v>
       </c>
@@ -9566,7 +9618,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>859</v>
       </c>
@@ -9589,7 +9641,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>860</v>
       </c>
@@ -9612,7 +9664,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>883</v>
       </c>
@@ -9635,7 +9687,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>886</v>
       </c>
@@ -9658,7 +9710,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>894</v>
       </c>
@@ -9681,7 +9733,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>936</v>
       </c>
@@ -9704,7 +9756,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>946</v>
       </c>
@@ -9727,7 +9779,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>958</v>
       </c>
@@ -9750,7 +9802,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>694</v>
       </c>
@@ -9773,7 +9825,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>704</v>
       </c>
@@ -9796,7 +9848,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>739</v>
       </c>
@@ -9819,7 +9871,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>785</v>
       </c>
@@ -9842,7 +9894,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>813</v>
       </c>
@@ -9865,7 +9917,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>815</v>
       </c>
@@ -9888,7 +9940,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>831</v>
       </c>
@@ -9911,7 +9963,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>832</v>
       </c>
@@ -9934,7 +9986,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>854</v>
       </c>
@@ -9957,7 +10009,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>855</v>
       </c>
@@ -9980,7 +10032,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>875</v>
       </c>
@@ -10003,7 +10055,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>876</v>
       </c>
@@ -10026,7 +10078,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>939</v>
       </c>
@@ -10049,7 +10101,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>945</v>
       </c>
@@ -10072,7 +10124,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>631</v>
       </c>
@@ -10095,7 +10147,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>699</v>
       </c>
@@ -10118,7 +10170,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>700</v>
       </c>
@@ -10141,7 +10193,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>716</v>
       </c>
@@ -10164,7 +10216,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>727</v>
       </c>
@@ -10187,7 +10239,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>734</v>
       </c>
@@ -10210,7 +10262,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>737</v>
       </c>
@@ -10233,7 +10285,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>751</v>
       </c>
@@ -10256,7 +10308,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>760</v>
       </c>
@@ -10279,7 +10331,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>761</v>
       </c>
@@ -10302,7 +10354,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>767</v>
       </c>
@@ -10325,7 +10377,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>773</v>
       </c>
@@ -10348,7 +10400,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>774</v>
       </c>
@@ -10371,7 +10423,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>794</v>
       </c>
@@ -10394,7 +10446,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>799</v>
       </c>
@@ -10417,7 +10469,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>805</v>
       </c>
@@ -10440,7 +10492,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>825</v>
       </c>
@@ -10463,7 +10515,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>828</v>
       </c>
@@ -10486,7 +10538,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>837</v>
       </c>
@@ -10509,7 +10561,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>842</v>
       </c>
@@ -10532,7 +10584,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>852</v>
       </c>
@@ -10555,7 +10607,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>859</v>
       </c>
@@ -10578,7 +10630,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>860</v>
       </c>
@@ -10601,7 +10653,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>883</v>
       </c>
@@ -10624,7 +10676,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>886</v>
       </c>
@@ -10647,7 +10699,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>894</v>
       </c>
@@ -10670,7 +10722,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>936</v>
       </c>
@@ -10693,7 +10745,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>946</v>
       </c>
@@ -10716,7 +10768,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>958</v>
       </c>
@@ -10739,7 +10791,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>643</v>
       </c>
@@ -10762,7 +10814,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>694</v>
       </c>
@@ -10785,7 +10837,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>704</v>
       </c>
@@ -10808,7 +10860,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>715</v>
       </c>
@@ -10831,7 +10883,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>733</v>
       </c>
@@ -10854,7 +10906,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>739</v>
       </c>
@@ -10877,7 +10929,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>748</v>
       </c>
@@ -10900,7 +10952,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>756</v>
       </c>
@@ -10923,7 +10975,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>757</v>
       </c>
@@ -10946,7 +10998,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>772</v>
       </c>
@@ -10969,7 +11021,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>780</v>
       </c>
@@ -10992,7 +11044,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>785</v>
       </c>
@@ -11015,7 +11067,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>789</v>
       </c>
@@ -11038,7 +11090,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>801</v>
       </c>
@@ -11061,7 +11113,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>813</v>
       </c>
@@ -11084,7 +11136,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>815</v>
       </c>
@@ -11107,7 +11159,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>831</v>
       </c>
@@ -11130,7 +11182,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>832</v>
       </c>
@@ -11153,7 +11205,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>833</v>
       </c>
@@ -11176,7 +11228,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>854</v>
       </c>
@@ -11199,7 +11251,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>855</v>
       </c>
@@ -11222,7 +11274,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>875</v>
       </c>
@@ -11245,7 +11297,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>876</v>
       </c>
@@ -11268,7 +11320,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>900</v>
       </c>
@@ -11291,7 +11343,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>939</v>
       </c>
@@ -11314,7 +11366,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>945</v>
       </c>
@@ -11337,7 +11389,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>638</v>
       </c>
@@ -11360,7 +11412,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>696</v>
       </c>
@@ -11383,7 +11435,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>706</v>
       </c>
@@ -11406,7 +11458,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>708</v>
       </c>
@@ -11429,7 +11481,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>709</v>
       </c>
@@ -11452,7 +11504,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>712</v>
       </c>
@@ -11475,7 +11527,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>732</v>
       </c>
@@ -11498,7 +11550,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>736</v>
       </c>
@@ -11521,7 +11573,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>749</v>
       </c>
@@ -11544,7 +11596,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>750</v>
       </c>
@@ -11567,7 +11619,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>764</v>
       </c>
@@ -11590,7 +11642,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>769</v>
       </c>
@@ -11613,7 +11665,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>784</v>
       </c>
@@ -11636,7 +11688,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>788</v>
       </c>
@@ -11659,7 +11711,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>791</v>
       </c>
@@ -11682,7 +11734,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>792</v>
       </c>
@@ -11705,7 +11757,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>806</v>
       </c>
@@ -11728,7 +11780,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>816</v>
       </c>
@@ -11751,7 +11803,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>829</v>
       </c>
@@ -11774,7 +11826,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>841</v>
       </c>
@@ -11797,7 +11849,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>850</v>
       </c>
@@ -11820,7 +11872,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>857</v>
       </c>
@@ -11843,7 +11895,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>858</v>
       </c>
@@ -11866,7 +11918,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>868</v>
       </c>
@@ -11889,7 +11941,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>889</v>
       </c>
@@ -11912,7 +11964,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>895</v>
       </c>
@@ -11935,7 +11987,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>938</v>
       </c>
@@ -11958,7 +12010,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>948</v>
       </c>
@@ -11981,7 +12033,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>949</v>
       </c>
@@ -12004,7 +12056,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>631</v>
       </c>
@@ -12027,7 +12079,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>699</v>
       </c>
@@ -12050,7 +12102,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>700</v>
       </c>
@@ -12073,7 +12125,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>761</v>
       </c>
@@ -12096,7 +12148,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>767</v>
       </c>
@@ -12119,7 +12171,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>828</v>
       </c>
@@ -12142,7 +12194,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>837</v>
       </c>
@@ -12165,7 +12217,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>842</v>
       </c>
@@ -12188,7 +12240,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>852</v>
       </c>
@@ -12211,7 +12263,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>859</v>
       </c>
@@ -12234,7 +12286,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>860</v>
       </c>
@@ -12257,7 +12309,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>886</v>
       </c>
@@ -12280,7 +12332,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>936</v>
       </c>
@@ -12303,7 +12355,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>946</v>
       </c>
@@ -12326,7 +12378,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>958</v>
       </c>
@@ -12349,7 +12401,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>708</v>
       </c>
@@ -12372,7 +12424,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>712</v>
       </c>
@@ -12395,7 +12447,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>750</v>
       </c>
@@ -12418,7 +12470,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>784</v>
       </c>
@@ -12441,7 +12493,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>792</v>
       </c>
@@ -12464,7 +12516,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>829</v>
       </c>
@@ -12487,7 +12539,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>841</v>
       </c>
@@ -12510,7 +12562,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>857</v>
       </c>
@@ -12533,7 +12585,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>938</v>
       </c>
@@ -12556,7 +12608,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>949</v>
       </c>
@@ -12579,7 +12631,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>653</v>
       </c>
@@ -12602,7 +12654,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>703</v>
       </c>
@@ -12625,7 +12677,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>730</v>
       </c>
@@ -12648,7 +12700,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>735</v>
       </c>
@@ -12671,7 +12723,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>744</v>
       </c>
@@ -12694,7 +12746,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>759</v>
       </c>
@@ -12717,7 +12769,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>762</v>
       </c>
@@ -12740,7 +12792,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>803</v>
       </c>
@@ -12763,7 +12815,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>830</v>
       </c>
@@ -12786,7 +12838,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>834</v>
       </c>
@@ -12809,7 +12861,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>853</v>
       </c>
@@ -12832,7 +12884,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>880</v>
       </c>
@@ -12855,7 +12907,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>888</v>
       </c>
@@ -12878,7 +12930,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>941</v>
       </c>
@@ -12901,7 +12953,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>942</v>
       </c>
@@ -12924,7 +12976,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>653</v>
       </c>
@@ -12947,7 +12999,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>707</v>
       </c>
@@ -12970,7 +13022,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>717</v>
       </c>
@@ -12993,7 +13045,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>730</v>
       </c>
@@ -13016,7 +13068,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>735</v>
       </c>
@@ -13039,7 +13091,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>740</v>
       </c>
@@ -13062,7 +13114,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>744</v>
       </c>
@@ -13085,7 +13137,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>759</v>
       </c>
@@ -13108,7 +13160,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>762</v>
       </c>
@@ -13131,7 +13183,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>768</v>
       </c>
@@ -13154,7 +13206,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>782</v>
       </c>
@@ -13177,7 +13229,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>787</v>
       </c>
@@ -13200,7 +13252,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>793</v>
       </c>
@@ -13223,7 +13275,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>803</v>
       </c>
@@ -13246,7 +13298,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>804</v>
       </c>
@@ -13269,7 +13321,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>821</v>
       </c>
@@ -13292,7 +13344,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>830</v>
       </c>
@@ -13315,7 +13367,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>834</v>
       </c>
@@ -13338,7 +13390,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>851</v>
       </c>
@@ -13361,7 +13413,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>853</v>
       </c>
@@ -13384,7 +13436,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>867</v>
       </c>
@@ -13407,7 +13459,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>880</v>
       </c>
@@ -13427,10 +13479,10 @@
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>888</v>
       </c>
@@ -13450,10 +13502,10 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>898</v>
       </c>
@@ -13473,10 +13525,10 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>942</v>
       </c>
@@ -13496,10 +13548,10 @@
         <v>0</v>
       </c>
       <c r="H483" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>631</v>
       </c>
@@ -13519,10 +13571,10 @@
         <v>0</v>
       </c>
       <c r="H484" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>699</v>
       </c>
@@ -13542,10 +13594,10 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>700</v>
       </c>
@@ -13565,10 +13617,10 @@
         <v>0</v>
       </c>
       <c r="H486" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>727</v>
       </c>
@@ -13588,10 +13640,10 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>760</v>
       </c>
@@ -13611,10 +13663,10 @@
         <v>0</v>
       </c>
       <c r="H488" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>761</v>
       </c>
@@ -13634,10 +13686,10 @@
         <v>0</v>
       </c>
       <c r="H489" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>767</v>
       </c>
@@ -13657,10 +13709,10 @@
         <v>0</v>
       </c>
       <c r="H490" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>828</v>
       </c>
@@ -13680,10 +13732,10 @@
         <v>0</v>
       </c>
       <c r="H491" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>837</v>
       </c>
@@ -13703,10 +13755,10 @@
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>842</v>
       </c>
@@ -13726,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="H493" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>852</v>
       </c>
@@ -13749,10 +13801,10 @@
         <v>1</v>
       </c>
       <c r="H494" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>859</v>
       </c>
@@ -13772,10 +13824,10 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>860</v>
       </c>
@@ -13795,10 +13847,10 @@
         <v>0</v>
       </c>
       <c r="H496" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>886</v>
       </c>
@@ -13818,10 +13870,10 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>936</v>
       </c>
@@ -13841,10 +13893,10 @@
         <v>1</v>
       </c>
       <c r="H498" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>946</v>
       </c>
@@ -13864,10 +13916,10 @@
         <v>1</v>
       </c>
       <c r="H499" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>958</v>
       </c>
@@ -13887,10 +13939,10 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>638</v>
       </c>
@@ -13910,10 +13962,10 @@
         <v>0</v>
       </c>
       <c r="H501" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>696</v>
       </c>
@@ -13933,10 +13985,10 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>706</v>
       </c>
@@ -13956,10 +14008,10 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>708</v>
       </c>
@@ -13979,10 +14031,10 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>709</v>
       </c>
@@ -14002,10 +14054,10 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>712</v>
       </c>
@@ -14025,10 +14077,10 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>732</v>
       </c>
@@ -14048,10 +14100,10 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>736</v>
       </c>
@@ -14071,10 +14123,10 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>749</v>
       </c>
@@ -14094,10 +14146,10 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>750</v>
       </c>
@@ -14117,10 +14169,10 @@
         <v>1</v>
       </c>
       <c r="H510" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>764</v>
       </c>
@@ -14140,10 +14192,10 @@
         <v>0</v>
       </c>
       <c r="H511" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>769</v>
       </c>
@@ -14163,10 +14215,10 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>784</v>
       </c>
@@ -14186,10 +14238,10 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>788</v>
       </c>
@@ -14209,10 +14261,10 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>791</v>
       </c>
@@ -14232,10 +14284,10 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>792</v>
       </c>
@@ -14255,10 +14307,10 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>806</v>
       </c>
@@ -14278,10 +14330,10 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>816</v>
       </c>
@@ -14301,10 +14353,10 @@
         <v>1</v>
       </c>
       <c r="H518" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>829</v>
       </c>
@@ -14324,10 +14376,10 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>841</v>
       </c>
@@ -14347,10 +14399,10 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>850</v>
       </c>
@@ -14370,10 +14422,10 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>857</v>
       </c>
@@ -14393,10 +14445,10 @@
         <v>0</v>
       </c>
       <c r="H522" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>858</v>
       </c>
@@ -14416,10 +14468,10 @@
         <v>0</v>
       </c>
       <c r="H523" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>868</v>
       </c>
@@ -14439,10 +14491,10 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>877</v>
       </c>
@@ -14462,10 +14514,10 @@
         <v>0</v>
       </c>
       <c r="H525" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>889</v>
       </c>
@@ -14485,10 +14537,10 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>895</v>
       </c>
@@ -14508,10 +14560,10 @@
         <v>1</v>
       </c>
       <c r="H527" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>938</v>
       </c>
@@ -14531,10 +14583,10 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>948</v>
       </c>
@@ -14554,10 +14606,10 @@
         <v>1</v>
       </c>
       <c r="H529" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>949</v>
       </c>
@@ -14577,10 +14629,10 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>653</v>
       </c>
@@ -14600,10 +14652,10 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>703</v>
       </c>
@@ -14623,10 +14675,10 @@
         <v>0</v>
       </c>
       <c r="H532" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>707</v>
       </c>
@@ -14646,10 +14698,10 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>717</v>
       </c>
@@ -14669,10 +14721,10 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>730</v>
       </c>
@@ -14692,10 +14744,10 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>735</v>
       </c>
@@ -14715,10 +14767,10 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>740</v>
       </c>
@@ -14738,10 +14790,10 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>744</v>
       </c>
@@ -14761,10 +14813,10 @@
         <v>1</v>
       </c>
       <c r="H538" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>759</v>
       </c>
@@ -14784,10 +14836,10 @@
         <v>1</v>
       </c>
       <c r="H539" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>762</v>
       </c>
@@ -14807,10 +14859,10 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>768</v>
       </c>
@@ -14830,10 +14882,10 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>782</v>
       </c>
@@ -14853,10 +14905,10 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>787</v>
       </c>
@@ -14876,10 +14928,10 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>793</v>
       </c>
@@ -14899,10 +14951,10 @@
         <v>1</v>
       </c>
       <c r="H544" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>803</v>
       </c>
@@ -14922,10 +14974,10 @@
         <v>1</v>
       </c>
       <c r="H545" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>804</v>
       </c>
@@ -14945,10 +14997,10 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>821</v>
       </c>
@@ -14968,10 +15020,10 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>830</v>
       </c>
@@ -14991,10 +15043,10 @@
         <v>1</v>
       </c>
       <c r="H548" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>834</v>
       </c>
@@ -15014,10 +15066,10 @@
         <v>1</v>
       </c>
       <c r="H549" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="550" spans="1:8">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>851</v>
       </c>
@@ -15037,10 +15089,10 @@
         <v>1</v>
       </c>
       <c r="H550" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>853</v>
       </c>
@@ -15060,10 +15112,10 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>867</v>
       </c>
@@ -15083,10 +15135,10 @@
         <v>1</v>
       </c>
       <c r="H552" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>880</v>
       </c>
@@ -15106,10 +15158,10 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>888</v>
       </c>
@@ -15129,10 +15181,10 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>898</v>
       </c>
@@ -15152,10 +15204,10 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="556" spans="1:8">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>941</v>
       </c>
@@ -15175,10 +15227,10 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>942</v>
       </c>
@@ -15198,10 +15250,10 @@
         <v>1</v>
       </c>
       <c r="H557" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>631</v>
       </c>
@@ -15221,10 +15273,10 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="559" spans="1:8">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>699</v>
       </c>
@@ -15244,10 +15296,10 @@
         <v>1</v>
       </c>
       <c r="H559" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>700</v>
       </c>
@@ -15267,10 +15319,10 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>716</v>
       </c>
@@ -15290,10 +15342,10 @@
         <v>1</v>
       </c>
       <c r="H561" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="562" spans="1:8">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>727</v>
       </c>
@@ -15313,10 +15365,10 @@
         <v>1</v>
       </c>
       <c r="H562" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="563" spans="1:8">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>734</v>
       </c>
@@ -15336,10 +15388,10 @@
         <v>1</v>
       </c>
       <c r="H563" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="564" spans="1:8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>737</v>
       </c>
@@ -15359,10 +15411,10 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="565" spans="1:8">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>751</v>
       </c>
@@ -15382,10 +15434,10 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="566" spans="1:8">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>761</v>
       </c>
@@ -15405,10 +15457,10 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>773</v>
       </c>
@@ -15428,10 +15480,10 @@
         <v>1</v>
       </c>
       <c r="H567" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>774</v>
       </c>
@@ -15451,10 +15503,10 @@
         <v>0</v>
       </c>
       <c r="H568" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="569" spans="1:8">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>794</v>
       </c>
@@ -15474,10 +15526,10 @@
         <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>799</v>
       </c>
@@ -15497,10 +15549,10 @@
         <v>1</v>
       </c>
       <c r="H570" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>805</v>
       </c>
@@ -15520,10 +15572,10 @@
         <v>1</v>
       </c>
       <c r="H571" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>817</v>
       </c>
@@ -15543,10 +15595,10 @@
         <v>1</v>
       </c>
       <c r="H572" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>825</v>
       </c>
@@ -15566,10 +15618,10 @@
         <v>1</v>
       </c>
       <c r="H573" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="574" spans="1:8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>828</v>
       </c>
@@ -15589,10 +15641,10 @@
         <v>1</v>
       </c>
       <c r="H574" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>837</v>
       </c>
@@ -15612,10 +15664,10 @@
         <v>1</v>
       </c>
       <c r="H575" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>842</v>
       </c>
@@ -15635,10 +15687,10 @@
         <v>0</v>
       </c>
       <c r="H576" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="577" spans="1:8">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>852</v>
       </c>
@@ -15658,10 +15710,10 @@
         <v>1</v>
       </c>
       <c r="H577" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>859</v>
       </c>
@@ -15681,10 +15733,10 @@
         <v>1</v>
       </c>
       <c r="H578" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="579" spans="1:8">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>860</v>
       </c>
@@ -15704,10 +15756,10 @@
         <v>1</v>
       </c>
       <c r="H579" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="580" spans="1:8">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>883</v>
       </c>
@@ -15727,10 +15779,10 @@
         <v>0</v>
       </c>
       <c r="H580" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="581" spans="1:8">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>886</v>
       </c>
@@ -15750,10 +15802,10 @@
         <v>1</v>
       </c>
       <c r="H581" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="582" spans="1:8">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>894</v>
       </c>
@@ -15773,10 +15825,10 @@
         <v>1</v>
       </c>
       <c r="H582" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="583" spans="1:8">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>936</v>
       </c>
@@ -15796,10 +15848,10 @@
         <v>1</v>
       </c>
       <c r="H583" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="584" spans="1:8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>946</v>
       </c>
@@ -15819,10 +15871,10 @@
         <v>1</v>
       </c>
       <c r="H584" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="585" spans="1:8">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>958</v>
       </c>
@@ -15842,10 +15894,10 @@
         <v>1</v>
       </c>
       <c r="H585" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="586" spans="1:8">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>694</v>
       </c>
@@ -15865,10 +15917,10 @@
         <v>0</v>
       </c>
       <c r="H586" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="587" spans="1:8">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>704</v>
       </c>
@@ -15888,10 +15940,10 @@
         <v>1</v>
       </c>
       <c r="H587" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="588" spans="1:8">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>739</v>
       </c>
@@ -15911,10 +15963,10 @@
         <v>1</v>
       </c>
       <c r="H588" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="589" spans="1:8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>757</v>
       </c>
@@ -15934,10 +15986,10 @@
         <v>1</v>
       </c>
       <c r="H589" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="590" spans="1:8">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>785</v>
       </c>
@@ -15957,10 +16009,10 @@
         <v>0</v>
       </c>
       <c r="H590" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="591" spans="1:8">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>813</v>
       </c>
@@ -15980,10 +16032,10 @@
         <v>1</v>
       </c>
       <c r="H591" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="592" spans="1:8">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>815</v>
       </c>
@@ -16003,10 +16055,10 @@
         <v>1</v>
       </c>
       <c r="H592" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="593" spans="1:8">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>832</v>
       </c>
@@ -16026,10 +16078,10 @@
         <v>1</v>
       </c>
       <c r="H593" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="594" spans="1:8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>854</v>
       </c>
@@ -16049,10 +16101,10 @@
         <v>1</v>
       </c>
       <c r="H594" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="595" spans="1:8">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>855</v>
       </c>
@@ -16072,10 +16124,10 @@
         <v>1</v>
       </c>
       <c r="H595" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="596" spans="1:8">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>875</v>
       </c>
@@ -16095,10 +16147,10 @@
         <v>1</v>
       </c>
       <c r="H596" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="597" spans="1:8">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>876</v>
       </c>
@@ -16118,10 +16170,10 @@
         <v>1</v>
       </c>
       <c r="H597" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="598" spans="1:8">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>939</v>
       </c>
@@ -16141,10 +16193,10 @@
         <v>1</v>
       </c>
       <c r="H598" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="599" spans="1:8">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>945</v>
       </c>
@@ -16164,10 +16216,10 @@
         <v>1</v>
       </c>
       <c r="H599" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="600" spans="1:8">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>653</v>
       </c>
@@ -16187,10 +16239,10 @@
         <v>1</v>
       </c>
       <c r="H600" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="601" spans="1:8">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>703</v>
       </c>
@@ -16210,10 +16262,10 @@
         <v>0</v>
       </c>
       <c r="H601" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="602" spans="1:8">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>730</v>
       </c>
@@ -16233,10 +16285,10 @@
         <v>0</v>
       </c>
       <c r="H602" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="603" spans="1:8">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>735</v>
       </c>
@@ -16256,10 +16308,10 @@
         <v>0</v>
       </c>
       <c r="H603" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="604" spans="1:8">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>744</v>
       </c>
@@ -16279,10 +16331,10 @@
         <v>0</v>
       </c>
       <c r="H604" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="605" spans="1:8">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>759</v>
       </c>
@@ -16302,10 +16354,10 @@
         <v>0</v>
       </c>
       <c r="H605" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="606" spans="1:8">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>762</v>
       </c>
@@ -16325,10 +16377,10 @@
         <v>0</v>
       </c>
       <c r="H606" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="607" spans="1:8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>803</v>
       </c>
@@ -16348,10 +16400,10 @@
         <v>0</v>
       </c>
       <c r="H607" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="608" spans="1:8">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>830</v>
       </c>
@@ -16371,10 +16423,10 @@
         <v>0</v>
       </c>
       <c r="H608" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="609" spans="1:8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>834</v>
       </c>
@@ -16394,10 +16446,10 @@
         <v>1</v>
       </c>
       <c r="H609" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="610" spans="1:8">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>853</v>
       </c>
@@ -16417,10 +16469,10 @@
         <v>1</v>
       </c>
       <c r="H610" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="611" spans="1:8">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>888</v>
       </c>
@@ -16440,10 +16492,10 @@
         <v>0</v>
       </c>
       <c r="H611" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="612" spans="1:8">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>941</v>
       </c>
@@ -16463,10 +16515,10 @@
         <v>0</v>
       </c>
       <c r="H612" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="613" spans="1:8">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>942</v>
       </c>
@@ -16486,10 +16538,10 @@
         <v>1</v>
       </c>
       <c r="H613" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="614" spans="1:8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>638</v>
       </c>
@@ -16509,10 +16561,10 @@
         <v>1</v>
       </c>
       <c r="H614" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="615" spans="1:8">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>708</v>
       </c>
@@ -16532,10 +16584,10 @@
         <v>0</v>
       </c>
       <c r="H615" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="616" spans="1:8">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>709</v>
       </c>
@@ -16555,10 +16607,10 @@
         <v>0</v>
       </c>
       <c r="H616" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="617" spans="1:8">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>712</v>
       </c>
@@ -16578,10 +16630,10 @@
         <v>0</v>
       </c>
       <c r="H617" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="618" spans="1:8">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>750</v>
       </c>
@@ -16601,10 +16653,10 @@
         <v>0</v>
       </c>
       <c r="H618" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="619" spans="1:8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>784</v>
       </c>
@@ -16624,10 +16676,10 @@
         <v>1</v>
       </c>
       <c r="H619" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="620" spans="1:8">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>792</v>
       </c>
@@ -16647,10 +16699,10 @@
         <v>1</v>
       </c>
       <c r="H620" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="621" spans="1:8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>829</v>
       </c>
@@ -16670,10 +16722,10 @@
         <v>0</v>
       </c>
       <c r="H621" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="622" spans="1:8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>841</v>
       </c>
@@ -16693,10 +16745,10 @@
         <v>1</v>
       </c>
       <c r="H622" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="623" spans="1:8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>857</v>
       </c>
@@ -16716,10 +16768,10 @@
         <v>0</v>
       </c>
       <c r="H623" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="624" spans="1:8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>938</v>
       </c>
@@ -16739,10 +16791,10 @@
         <v>0</v>
       </c>
       <c r="H624" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="625" spans="1:8">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>949</v>
       </c>
@@ -16762,10 +16814,10 @@
         <v>1</v>
       </c>
       <c r="H625" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="626" spans="1:8">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>643</v>
       </c>
@@ -16785,10 +16837,10 @@
         <v>1</v>
       </c>
       <c r="H626" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="627" spans="1:8">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>694</v>
       </c>
@@ -16808,10 +16860,10 @@
         <v>0</v>
       </c>
       <c r="H627" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="628" spans="1:8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>704</v>
       </c>
@@ -16831,10 +16883,10 @@
         <v>1</v>
       </c>
       <c r="H628" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="629" spans="1:8">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>715</v>
       </c>
@@ -16854,10 +16906,10 @@
         <v>1</v>
       </c>
       <c r="H629" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="630" spans="1:8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>733</v>
       </c>
@@ -16877,10 +16929,10 @@
         <v>1</v>
       </c>
       <c r="H630" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="631" spans="1:8">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>739</v>
       </c>
@@ -16900,10 +16952,10 @@
         <v>1</v>
       </c>
       <c r="H631" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="632" spans="1:8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>748</v>
       </c>
@@ -16923,10 +16975,10 @@
         <v>1</v>
       </c>
       <c r="H632" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="633" spans="1:8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>756</v>
       </c>
@@ -16946,10 +16998,10 @@
         <v>1</v>
       </c>
       <c r="H633" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="634" spans="1:8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>757</v>
       </c>
@@ -16969,10 +17021,10 @@
         <v>1</v>
       </c>
       <c r="H634" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="635" spans="1:8">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>780</v>
       </c>
@@ -16992,10 +17044,10 @@
         <v>1</v>
       </c>
       <c r="H635" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="636" spans="1:8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>785</v>
       </c>
@@ -17015,10 +17067,10 @@
         <v>1</v>
       </c>
       <c r="H636" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="637" spans="1:8">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>789</v>
       </c>
@@ -17038,10 +17090,10 @@
         <v>0</v>
       </c>
       <c r="H637" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="638" spans="1:8">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>801</v>
       </c>
@@ -17061,10 +17113,10 @@
         <v>1</v>
       </c>
       <c r="H638" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="639" spans="1:8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>813</v>
       </c>
@@ -17084,10 +17136,10 @@
         <v>1</v>
       </c>
       <c r="H639" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="640" spans="1:8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>815</v>
       </c>
@@ -17107,10 +17159,10 @@
         <v>1</v>
       </c>
       <c r="H640" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="641" spans="1:8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>831</v>
       </c>
@@ -17130,10 +17182,10 @@
         <v>1</v>
       </c>
       <c r="H641" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="642" spans="1:8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>832</v>
       </c>
@@ -17153,10 +17205,10 @@
         <v>1</v>
       </c>
       <c r="H642" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="643" spans="1:8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>833</v>
       </c>
@@ -17176,10 +17228,10 @@
         <v>1</v>
       </c>
       <c r="H643" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="644" spans="1:8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>854</v>
       </c>
@@ -17199,10 +17251,10 @@
         <v>1</v>
       </c>
       <c r="H644" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="645" spans="1:8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>855</v>
       </c>
@@ -17222,10 +17274,10 @@
         <v>1</v>
       </c>
       <c r="H645" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="646" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>875</v>
       </c>
@@ -17245,10 +17297,10 @@
         <v>1</v>
       </c>
       <c r="H646" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="647" spans="1:8">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>876</v>
       </c>
@@ -17268,10 +17320,10 @@
         <v>1</v>
       </c>
       <c r="H647" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="648" spans="1:8">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>890</v>
       </c>
@@ -17291,10 +17343,10 @@
         <v>0</v>
       </c>
       <c r="H648" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="649" spans="1:8">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>900</v>
       </c>
@@ -17314,10 +17366,10 @@
         <v>1</v>
       </c>
       <c r="H649" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="650" spans="1:8">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>939</v>
       </c>
@@ -17337,10 +17389,10 @@
         <v>1</v>
       </c>
       <c r="H650" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="651" spans="1:8">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>945</v>
       </c>
@@ -17360,7 +17412,7 @@
         <v>1</v>
       </c>
       <c r="H651" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
